--- a/biology/Zoologie/Aamunops/Aamunops.xlsx
+++ b/biology/Zoologie/Aamunops/Aamunops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aamunops est un genre d'araignées aranéomorphes de la famille des Caponiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aamunops est un genre d'araignées aranéomorphes de la famille des Caponiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques du Mexique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques du Mexique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces d'Aamunops comptent deux yeux[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces d'Aamunops comptent deux yeux.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 10/05/2024)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 10/05/2024) :
 Aamunops chimpa Galán-Sánchez &amp; Álvarez-Padilla, 2022
 Aamunops hoof Sánchez-Ruiz &amp; Bonaldo, 2024
 Aamunops kalebi Chamé-Vázquez &amp; Jiménez, 2024
@@ -610,7 +628,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Galán-Sánchez et Álvarez-Padilla en 2022 dans les Caponiidae.
 </t>
@@ -641,7 +661,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Galán-Sánchez &amp; Álvarez-Padilla, 2022 : « A new genus of caponiid spiders with its phylogenetic placement within Nopinae and the description of a new species of Orthonops Chamberlin, 1924 from eastern Mexico (Araneae: Synspermiata, Caponiidae). » Zootaxa, no 5128(4), p. 547-573.</t>
         </is>
